--- a/20171124/data.xlsx
+++ b/20171124/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oda_Lab\Documents\Visual Studio 2015\Projects\ootawake3\ootawake3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaki\Documents\ootawakezemi\20171124\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1682,8 +1682,62 @@
         <v>0.219</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>